--- a/Calc/History/2025.xlsx
+++ b/Calc/History/2025.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Filles\Java\Calculator\Calc\History\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSD - reseved\Files\Java\Calculator\Calc\History\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="5685" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="01.01" sheetId="1" r:id="rId1" state="hidden"/>
+    <sheet name="01.01" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="02.01" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="03.01" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="04.01" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Expression</t>
   </si>
@@ -88,7 +88,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,55 +406,55 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -473,55 +472,55 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -539,69 +538,69 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -615,64 +614,67 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
